--- a/idis/expdata/90022.xlsx
+++ b/idis/expdata/90022.xlsx
@@ -1416,7 +1416,7 @@
         <v>166</v>
       </c>
       <c r="M2">
-        <v>1.782054178215589e-06</v>
+        <v>4.418941554250804e-06</v>
       </c>
       <c r="N2">
         <v>1.629376624022046e-06</v>
@@ -1913,7 +1913,7 @@
         <v>166</v>
       </c>
       <c r="M3">
-        <v>1.020860984310859e-06</v>
+        <v>2.418086373520666e-06</v>
       </c>
       <c r="N3">
         <v>1.63826875444128e-06</v>
@@ -2410,7 +2410,7 @@
         <v>166</v>
       </c>
       <c r="M4">
-        <v>1.567878129261406e-06</v>
+        <v>3.607583903252571e-06</v>
       </c>
       <c r="N4">
         <v>3.989534862444346e-06</v>
@@ -2907,7 +2907,7 @@
         <v>166</v>
       </c>
       <c r="M5">
-        <v>5.961974691799255e-07</v>
+        <v>1.357024610755386e-06</v>
       </c>
       <c r="N5">
         <v>1.64718862922997e-06</v>
@@ -3404,7 +3404,7 @@
         <v>166</v>
       </c>
       <c r="M6">
-        <v>8.718110677712894e-07</v>
+        <v>1.944229887276614e-06</v>
       </c>
       <c r="N6">
         <v>4.012243116928986e-06</v>
@@ -3901,7 +3901,7 @@
         <v>166</v>
       </c>
       <c r="M7">
-        <v>3.498653481392275e-07</v>
+        <v>7.718496719143996e-07</v>
       </c>
       <c r="N7">
         <v>1.656338687278415e-06</v>
@@ -4398,7 +4398,7 @@
         <v>166</v>
       </c>
       <c r="M8">
-        <v>5.012174033591539e-07</v>
+        <v>1.0902286136565e-06</v>
       </c>
       <c r="N8">
         <v>4.038917614263398e-06</v>
@@ -4895,7 +4895,7 @@
         <v>166</v>
       </c>
       <c r="M9">
-        <v>7.820274408185415e-07</v>
+        <v>1.684639393493904e-06</v>
       </c>
       <c r="N9">
         <v>9.951132296591669e-06</v>
@@ -5392,7 +5392,7 @@
         <v>166</v>
       </c>
       <c r="M10">
-        <v>2.057672341746285e-07</v>
+        <v>4.422111449603579e-07</v>
       </c>
       <c r="N10">
         <v>1.666791443910665e-06</v>
@@ -5889,7 +5889,7 @@
         <v>166</v>
       </c>
       <c r="M11">
-        <v>2.933307009369381e-07</v>
+        <v>6.246164983568819e-07</v>
       </c>
       <c r="N11">
         <v>4.07007416933609e-06</v>
@@ -6386,7 +6386,7 @@
         <v>166</v>
       </c>
       <c r="M12">
-        <v>4.433534249714033e-07</v>
+        <v>9.363624852282976e-07</v>
       </c>
       <c r="N12">
         <v>1.003252789552294e-05</v>
@@ -6883,7 +6883,7 @@
         <v>166</v>
       </c>
       <c r="M13">
-        <v>7.341192532790777e-07</v>
+        <v>1.502630387644477e-06</v>
       </c>
       <c r="N13">
         <v>2.530904505740605e-05</v>
@@ -7380,7 +7380,7 @@
         <v>166</v>
       </c>
       <c r="M14">
-        <v>1.212314318264219e-07</v>
+        <v>2.543526942036451e-07</v>
       </c>
       <c r="N14">
         <v>1.680472033689155e-06</v>
@@ -7877,7 +7877,7 @@
         <v>166</v>
       </c>
       <c r="M15">
-        <v>1.730089442292899e-07</v>
+        <v>3.616204111144864e-07</v>
       </c>
       <c r="N15">
         <v>4.109250287593981e-06</v>
@@ -8374,7 +8374,7 @@
         <v>166</v>
       </c>
       <c r="M16">
-        <v>2.585480584473198e-07</v>
+        <v>5.363999988189234e-07</v>
       </c>
       <c r="N16">
         <v>1.013399158669769e-05</v>
@@ -8871,7 +8871,7 @@
         <v>166</v>
       </c>
       <c r="M17">
-        <v>4.092880998287948e-07</v>
+        <v>8.242148325583112e-07</v>
       </c>
       <c r="N17">
         <v>2.550596520871095e-05</v>
@@ -9368,7 +9368,7 @@
         <v>166</v>
       </c>
       <c r="M18">
-        <v>7.093074124949549e-08</v>
+        <v>1.462518165273396e-07</v>
       </c>
       <c r="N18">
         <v>1.700756416333263e-06</v>
@@ -9865,7 +9865,7 @@
         <v>166</v>
       </c>
       <c r="M19">
-        <v>1.024237815254764e-07</v>
+        <v>2.099100594943013e-07</v>
       </c>
       <c r="N19">
         <v>4.161301087689116e-06</v>
@@ -10362,7 +10362,7 @@
         <v>166</v>
       </c>
       <c r="M20">
-        <v>1.529804884156729e-07</v>
+        <v>3.115975290905572e-07</v>
       </c>
       <c r="N20">
         <v>1.02650630824836e-05</v>
@@ -10859,7 +10859,7 @@
         <v>166</v>
       </c>
       <c r="M21">
-        <v>2.3730931088574e-07</v>
+        <v>4.726123565366349e-07</v>
       </c>
       <c r="N21">
         <v>2.570104022786821e-05</v>
@@ -11356,7 +11356,7 @@
         <v>166</v>
       </c>
       <c r="M22">
-        <v>3.949471833191326e-07</v>
+        <v>7.607760430112021e-07</v>
       </c>
       <c r="N22">
         <v>6.430108146342531e-05</v>
@@ -11853,7 +11853,7 @@
         <v>166</v>
       </c>
       <c r="M23">
-        <v>4.139721017621054e-08</v>
+        <v>8.336799287321022e-08</v>
       </c>
       <c r="N23">
         <v>1.726363514795176e-06</v>
@@ -12350,7 +12350,7 @@
         <v>166</v>
       </c>
       <c r="M24">
-        <v>6.053117246094439e-08</v>
+        <v>1.213390925299223e-07</v>
       </c>
       <c r="N24">
         <v>4.221781997583881e-06</v>
@@ -12847,7 +12847,7 @@
         <v>166</v>
       </c>
       <c r="M25">
-        <v>9.103160410710119e-08</v>
+        <v>1.817725996037463e-07</v>
       </c>
       <c r="N25">
         <v>1.041556875274691e-05</v>
@@ -13344,7 +13344,7 @@
         <v>166</v>
       </c>
       <c r="M26">
-        <v>1.406134968916004e-07</v>
+        <v>2.771752953167621e-07</v>
       </c>
       <c r="N26">
         <v>2.591711913170322e-05</v>
@@ -13841,7 +13841,7 @@
         <v>166</v>
       </c>
       <c r="M27">
-        <v>2.266532907689512e-07</v>
+        <v>4.337564651858732e-07</v>
       </c>
       <c r="N27">
         <v>6.479085791902665e-05</v>
@@ -14338,7 +14338,7 @@
         <v>166</v>
       </c>
       <c r="M28">
-        <v>2.394700091245797e-08</v>
+        <v>4.691847520103672e-08</v>
       </c>
       <c r="N28">
         <v>1.734763905220212e-06</v>
@@ -14835,7 +14835,7 @@
         <v>166</v>
       </c>
       <c r="M29">
-        <v>3.559302250160294e-08</v>
+        <v>6.994404023206733e-08</v>
       </c>
       <c r="N29">
         <v>4.245858673751895e-06</v>
@@ -15332,7 +15332,7 @@
         <v>166</v>
       </c>
       <c r="M30">
-        <v>5.420625808078291e-08</v>
+        <v>1.066684865348591e-07</v>
       </c>
       <c r="N30">
         <v>1.048248470528719e-05</v>
@@ -15829,7 +15829,7 @@
         <v>166</v>
       </c>
       <c r="M31">
-        <v>8.419614313645982e-08</v>
+        <v>1.650490167829744e-07</v>
       </c>
       <c r="N31">
         <v>2.597838227373349e-05</v>
@@ -16326,7 +16326,7 @@
         <v>166</v>
       </c>
       <c r="M32">
-        <v>1.340562833743547e-07</v>
+        <v>2.570316506495557e-07</v>
       </c>
       <c r="N32">
         <v>6.482752371936081e-05</v>
@@ -16823,7 +16823,7 @@
         <v>166</v>
       </c>
       <c r="M33">
-        <v>2.255760749619114e-07</v>
+        <v>4.125632234377475e-07</v>
       </c>
       <c r="N33">
         <v>0.0001597278232391998</v>
@@ -17320,7 +17320,7 @@
         <v>166</v>
       </c>
       <c r="M34">
-        <v>1.369610167838647e-08</v>
+        <v>2.673713648227215e-08</v>
       </c>
       <c r="N34">
         <v>1.685776154150958e-06</v>
@@ -17817,7 +17817,7 @@
         <v>166</v>
       </c>
       <c r="M35">
-        <v>2.079178157701292e-08</v>
+        <v>4.111906959491688e-08</v>
       </c>
       <c r="N35">
         <v>4.152395384019507e-06</v>
@@ -18314,7 +18314,7 @@
         <v>166</v>
       </c>
       <c r="M36">
-        <v>3.222823766542255e-08</v>
+        <v>6.409011435474121e-08</v>
       </c>
       <c r="N36">
         <v>1.028801829807516e-05</v>
@@ -18811,7 +18811,7 @@
         <v>166</v>
       </c>
       <c r="M37">
-        <v>5.063942113032613e-08</v>
+        <v>1.007410247923956e-07</v>
       </c>
       <c r="N37">
         <v>2.551853443227637e-05</v>
@@ -19308,7 +19308,7 @@
         <v>166</v>
       </c>
       <c r="M38">
-        <v>8.072656805241125e-08</v>
+        <v>1.579400355578841e-07</v>
       </c>
       <c r="N38">
         <v>6.363430308278053e-05</v>
@@ -19805,7 +19805,7 @@
         <v>166</v>
       </c>
       <c r="M39">
-        <v>1.329587259126453e-07</v>
+        <v>2.501250594683659e-07</v>
       </c>
       <c r="N39">
         <v>0.0001571832433679234</v>
@@ -20302,7 +20302,7 @@
         <v>166</v>
       </c>
       <c r="M40">
-        <v>2.356169059021084e-07</v>
+        <v>3.966919543797098e-07</v>
       </c>
       <c r="N40">
         <v>0.0003775934941398286</v>
@@ -20799,7 +20799,7 @@
         <v>166</v>
       </c>
       <c r="M41">
-        <v>1.223638852259286e-08</v>
+        <v>2.513788056127702e-08</v>
       </c>
       <c r="N41">
         <v>3.982386047807818e-06</v>
@@ -21296,7 +21296,7 @@
         <v>166</v>
       </c>
       <c r="M42">
-        <v>1.940134819278739e-08</v>
+        <v>3.984208604810508e-08</v>
       </c>
       <c r="N42">
         <v>9.932027632198341e-06</v>
@@ -21793,7 +21793,7 @@
         <v>166</v>
       </c>
       <c r="M43">
-        <v>3.099889156121391e-08</v>
+        <v>6.344040208465211e-08</v>
       </c>
       <c r="N43">
         <v>2.473973352220584e-05</v>
@@ -22290,7 +22290,7 @@
         <v>166</v>
       </c>
       <c r="M44">
-        <v>4.98888075011022e-08</v>
+        <v>1.004838281002028e-07</v>
       </c>
       <c r="N44">
         <v>6.17852592004489e-05</v>
@@ -22787,7 +22787,7 @@
         <v>166</v>
       </c>
       <c r="M45">
-        <v>8.172505127917733e-08</v>
+        <v>1.591164720643473e-07</v>
       </c>
       <c r="N45">
         <v>0.0001531893656420542</v>
@@ -23284,7 +23284,7 @@
         <v>166</v>
       </c>
       <c r="M46">
-        <v>1.399722339181305e-07</v>
+        <v>2.491927900759737e-07</v>
       </c>
       <c r="N46">
         <v>0.0003722279817201123</v>
@@ -23781,7 +23781,7 @@
         <v>166</v>
       </c>
       <c r="M47">
-        <v>1.257716236207154e-08</v>
+        <v>2.59293190675519e-08</v>
       </c>
       <c r="N47">
         <v>9.77618776804335e-06</v>
@@ -24278,7 +24278,7 @@
         <v>166</v>
       </c>
       <c r="M48">
-        <v>2.051846344809826e-08</v>
+        <v>4.202243199708159e-08</v>
       </c>
       <c r="N48">
         <v>2.443299511781574e-05</v>
@@ -24775,7 +24775,7 @@
         <v>166</v>
       </c>
       <c r="M49">
-        <v>3.35639678463773e-08</v>
+        <v>6.776947109085447e-08</v>
       </c>
       <c r="N49">
         <v>6.108936299274778e-05</v>
@@ -25272,7 +25272,7 @@
         <v>166</v>
       </c>
       <c r="M50">
-        <v>5.532264501508288e-08</v>
+        <v>1.08764229884255e-07</v>
       </c>
       <c r="N50">
         <v>0.0001519662192428664</v>
@@ -25769,7 +25769,7 @@
         <v>166</v>
       </c>
       <c r="M51">
-        <v>9.347331968146627e-08</v>
+        <v>1.721601249010173e-07</v>
       </c>
       <c r="N51">
         <v>0.0003729992327953493</v>
@@ -26266,7 +26266,7 @@
         <v>166</v>
       </c>
       <c r="M52">
-        <v>1.711871450371185e-07</v>
+        <v>2.563121440074084e-07</v>
       </c>
       <c r="N52">
         <v>0.000879839845793767</v>
@@ -26763,7 +26763,7 @@
         <v>166</v>
       </c>
       <c r="M53">
-        <v>1.767502008901521e-08</v>
+        <v>3.583858981330409e-08</v>
       </c>
       <c r="N53">
         <v>2.446852744327755e-05</v>
@@ -27260,7 +27260,7 @@
         <v>166</v>
       </c>
       <c r="M54">
-        <v>2.967504486546472e-08</v>
+        <v>5.977623897260474e-08</v>
       </c>
       <c r="N54">
         <v>6.121934108083358e-05</v>
@@ -27757,7 +27757,7 @@
         <v>166</v>
       </c>
       <c r="M55">
-        <v>4.981051432541012e-08</v>
+        <v>9.875409222218409e-08</v>
       </c>
       <c r="N55">
         <v>0.000152701684997218</v>
@@ -28254,7 +28254,7 @@
         <v>166</v>
       </c>
       <c r="M56">
-        <v>8.449165944962213e-08</v>
+        <v>1.609065636955491e-07</v>
       </c>
       <c r="N56">
         <v>0.0003778826067011456</v>
@@ -28751,7 +28751,7 @@
         <v>166</v>
       </c>
       <c r="M57">
-        <v>1.506213917242627e-07</v>
+        <v>2.523138888536429e-07</v>
       </c>
       <c r="N57">
         <v>0.000914712420391657</v>
@@ -29248,7 +29248,7 @@
         <v>166</v>
       </c>
       <c r="M58">
-        <v>3.34160051151052e-07</v>
+        <v>3.253928613731178e-07</v>
       </c>
       <c r="N58">
         <v>0.002064844978866891</v>
